--- a/Server/bin/Debug/GelenVeri.xlsx
+++ b/Server/bin/Debug/GelenVeri.xlsx
@@ -71,6 +71,18 @@
   </x:si>
   <x:si>
     <x:t>akın</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Koç</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kılıc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -665,6 +677,230 @@
         <x:v>9</x:v>
       </x:c>
     </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="A18" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="A19" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="A20" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4">
+      <x:c r="A21" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4">
+      <x:c r="A22" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="A23" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="A24" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4">
+      <x:c r="A25" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4">
+      <x:c r="A26" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4">
+      <x:c r="A27" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4">
+      <x:c r="A28" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4">
+      <x:c r="A29" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:4">
+      <x:c r="A30" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:4">
+      <x:c r="A31" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:4">
+      <x:c r="A32" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:4">
+      <x:c r="A33" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
